--- a/model/Outputs/8. Fixed RE/No PV/Output Files/30/Output_8_40.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Output Files/30/Output_8_40.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>423413.6403526154</v>
+        <v>1121156427.196087</v>
       </c>
     </row>
   </sheetData>
